--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T10:45:41+00:00</t>
+    <t>2024-12-26T11:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T11:41:10+00:00</t>
+    <t>2024-12-27T22:28:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/sleep-quality-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/sleep-quality-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-sleep-quality-vs.xlsx
+++ b/output/ValueSet-sleep-quality-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
